--- a/covid-19_dist0720_0712CSD.xlsx
+++ b/covid-19_dist0720_0712CSD.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumiKim\Desktop\MIDS_Courses\W203_Statistics\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SumiKim\Desktop\MIDS_Courses\W203_Statistics\Lab3\Lab-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B1C78-D6E6-4A95-8954-E2E7D33CCA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEEC9FD-B2B8-40AB-9A49-0679F050DCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Infromation" sheetId="1" r:id="rId1"/>
-    <sheet name="Covid-19" sheetId="2" r:id="rId2"/>
-    <sheet name="Note" sheetId="3" r:id="rId3"/>
+    <sheet name="test1" sheetId="4" r:id="rId1"/>
+    <sheet name="Infromation" sheetId="1" r:id="rId2"/>
+    <sheet name="Covid-19" sheetId="2" r:id="rId3"/>
+    <sheet name="Note" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="107">
   <si>
     <t>Variables</t>
   </si>
@@ -376,6 +377,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -910,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -970,6 +974,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -997,8 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,6 +1060,1273 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>% under federal poverty vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>cases in last 7days/population</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test1!$Q$2:$Q$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test1!$AA$2:$AA$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>2.0058151372776053E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8507205623901586E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5993538428324701E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4945245653817084E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3581503103918819E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5870198150594451E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4302793415673094E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1321562196307095E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7867315397824844E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1449945807708697E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9517303907198792E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6439829605963776E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.376039312039312E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8997954479588601E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1300495750708215E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.058574745638376E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1784710094855194E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7057797997068878E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2439921043755561E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7337306456324862E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.174687571526665E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2181081892083581E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2664273865178701E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3824263009152418E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7964004862910706E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1819316436251916E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7379663730984788E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.9816448391790855E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.000371368012011E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6659691368492452E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8388937267159552E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.8120564272782136E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.396822690483115E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1986754997739199E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7104769392033546E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5835670416965577E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.6456700050709958E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0967507331378301E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7541203047484058E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1211229474427637E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5388870604499741E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9534503751946768E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6630946899729737E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8070474444142818E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4280171764705883E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1412470023980809E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1260969410910409E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.963957880661875E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0626416791604201E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.7632953367875654E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.1883476132190947E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C48-4CA8-8621-506B5F79179B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570325584"/>
+        <c:axId val="570325904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="570325584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570325904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="570325904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570325584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>860136</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>646546</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914BADA1-D125-4C45-823F-AD86CC540EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1353,6 +2625,4514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295F21B8-C63C-419A-9986-C653F93520B7}">
+  <dimension ref="A1:AA53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="13.08203125" customWidth="1"/>
+    <col min="13" max="13" width="14.4140625" customWidth="1"/>
+    <col min="26" max="26" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>44909</v>
+      </c>
+      <c r="C2">
+        <v>1009</v>
+      </c>
+      <c r="D2">
+        <v>20.6</v>
+      </c>
+      <c r="E2">
+        <v>9804</v>
+      </c>
+      <c r="F2">
+        <v>918.8</v>
+      </c>
+      <c r="G2">
+        <v>449886</v>
+      </c>
+      <c r="H2" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43925</v>
+      </c>
+      <c r="J2" s="13">
+        <v>43951</v>
+      </c>
+      <c r="K2" s="10">
+        <v>43918</v>
+      </c>
+      <c r="L2" s="13">
+        <v>43951</v>
+      </c>
+      <c r="M2" s="10">
+        <v>43962</v>
+      </c>
+      <c r="N2">
+        <v>275</v>
+      </c>
+      <c r="O2">
+        <v>93.24</v>
+      </c>
+      <c r="P2">
+        <v>4887871</v>
+      </c>
+      <c r="Q2">
+        <v>16.8</v>
+      </c>
+      <c r="R2">
+        <v>43.1</v>
+      </c>
+      <c r="S2">
+        <v>54352</v>
+      </c>
+      <c r="T2">
+        <v>0.24</v>
+      </c>
+      <c r="U2">
+        <v>0.09</v>
+      </c>
+      <c r="V2">
+        <v>0.12</v>
+      </c>
+      <c r="W2">
+        <v>0.25</v>
+      </c>
+      <c r="X2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0.17</v>
+      </c>
+      <c r="Z2">
+        <f>B2/F2*100000</f>
+        <v>4887788.4196778415</v>
+      </c>
+      <c r="AA2" s="32">
+        <f>E2/Z2</f>
+        <v>2.0058151372776053E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1138</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3">
+        <v>284</v>
+      </c>
+      <c r="F3">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="G3">
+        <v>122732</v>
+      </c>
+      <c r="H3" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43918</v>
+      </c>
+      <c r="J3" s="13">
+        <v>43945</v>
+      </c>
+      <c r="K3" s="10">
+        <v>43918</v>
+      </c>
+      <c r="L3" s="13">
+        <v>43945</v>
+      </c>
+      <c r="M3" s="10">
+        <v>43945</v>
+      </c>
+      <c r="N3">
+        <v>370</v>
+      </c>
+      <c r="O3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P3">
+        <v>737438</v>
+      </c>
+      <c r="Q3">
+        <v>10.9</v>
+      </c>
+      <c r="R3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="S3">
+        <v>4453</v>
+      </c>
+      <c r="T3">
+        <v>0.27</v>
+      </c>
+      <c r="U3">
+        <v>0.09</v>
+      </c>
+      <c r="V3">
+        <v>0.13</v>
+      </c>
+      <c r="W3">
+        <v>0.26</v>
+      </c>
+      <c r="X3">
+        <v>0.13</v>
+      </c>
+      <c r="Y3">
+        <v>0.12</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z53" si="0">B3/F3*100000</f>
+        <v>737524.30330524943</v>
+      </c>
+      <c r="AA3" s="32">
+        <f t="shared" ref="AA3:AA53" si="1">E3/Z3</f>
+        <v>3.8507205623901586E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>83376</v>
+      </c>
+      <c r="C4">
+        <v>1538</v>
+      </c>
+      <c r="D4">
+        <v>25.2</v>
+      </c>
+      <c r="E4">
+        <v>28038</v>
+      </c>
+      <c r="F4">
+        <v>1367.7</v>
+      </c>
+      <c r="G4">
+        <v>604362</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43921</v>
+      </c>
+      <c r="J4" s="13">
+        <v>43967</v>
+      </c>
+      <c r="K4" s="10">
+        <v>43920</v>
+      </c>
+      <c r="L4" s="13">
+        <v>43959</v>
+      </c>
+      <c r="M4" s="10">
+        <v>43959</v>
+      </c>
+      <c r="N4">
+        <v>240</v>
+      </c>
+      <c r="O4">
+        <v>62.91</v>
+      </c>
+      <c r="P4">
+        <v>7171646</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>39.1</v>
+      </c>
+      <c r="S4">
+        <v>59282</v>
+      </c>
+      <c r="T4">
+        <v>0.24</v>
+      </c>
+      <c r="U4">
+        <v>0.09</v>
+      </c>
+      <c r="V4">
+        <v>0.12</v>
+      </c>
+      <c r="W4">
+        <v>0.24</v>
+      </c>
+      <c r="X4">
+        <v>0.12</v>
+      </c>
+      <c r="Y4">
+        <v>0.18</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>6096073.7003728887</v>
+      </c>
+      <c r="AA4" s="32">
+        <f t="shared" si="1"/>
+        <v>4.5993538428324701E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>14713</v>
+      </c>
+      <c r="C5">
+        <v>271</v>
+      </c>
+      <c r="D5">
+        <v>25.2</v>
+      </c>
+      <c r="E5">
+        <v>28038</v>
+      </c>
+      <c r="F5">
+        <v>1367.7</v>
+      </c>
+      <c r="G5">
+        <v>604362</v>
+      </c>
+      <c r="H5" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I5" s="10">
+        <v>43921</v>
+      </c>
+      <c r="J5" s="13">
+        <v>43967</v>
+      </c>
+      <c r="K5" s="10">
+        <v>43920</v>
+      </c>
+      <c r="L5" s="13">
+        <v>43959</v>
+      </c>
+      <c r="M5" s="10">
+        <v>43959</v>
+      </c>
+      <c r="N5">
+        <v>240</v>
+      </c>
+      <c r="O5">
+        <v>62.91</v>
+      </c>
+      <c r="P5">
+        <v>7171646</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>39.1</v>
+      </c>
+      <c r="S5">
+        <v>59282</v>
+      </c>
+      <c r="T5">
+        <v>0.24</v>
+      </c>
+      <c r="U5">
+        <v>0.09</v>
+      </c>
+      <c r="V5">
+        <v>0.12</v>
+      </c>
+      <c r="W5">
+        <v>0.24</v>
+      </c>
+      <c r="X5">
+        <v>0.12</v>
+      </c>
+      <c r="Y5">
+        <v>0.18</v>
+      </c>
+      <c r="AA5" s="32"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>23814</v>
+      </c>
+      <c r="C6">
+        <v>287</v>
+      </c>
+      <c r="D6">
+        <v>9.5</v>
+      </c>
+      <c r="E6">
+        <v>4504</v>
+      </c>
+      <c r="F6">
+        <v>790.2</v>
+      </c>
+      <c r="G6">
+        <v>338893</v>
+      </c>
+      <c r="H6" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>43955</v>
+      </c>
+      <c r="M6" s="10">
+        <v>43962</v>
+      </c>
+      <c r="N6">
+        <v>451</v>
+      </c>
+      <c r="O6">
+        <v>56.67</v>
+      </c>
+      <c r="P6">
+        <v>3013825</v>
+      </c>
+      <c r="Q6">
+        <v>17.2</v>
+      </c>
+      <c r="R6">
+        <v>43.5</v>
+      </c>
+      <c r="S6">
+        <v>32336</v>
+      </c>
+      <c r="T6">
+        <v>0.25</v>
+      </c>
+      <c r="U6">
+        <v>0.09</v>
+      </c>
+      <c r="V6">
+        <v>0.12</v>
+      </c>
+      <c r="W6">
+        <v>0.25</v>
+      </c>
+      <c r="X6">
+        <v>0.13</v>
+      </c>
+      <c r="Y6">
+        <v>0.17</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>3013667.4259681092</v>
+      </c>
+      <c r="AA6" s="32">
+        <f t="shared" si="1"/>
+        <v>1.4945245653817084E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>260155</v>
+      </c>
+      <c r="C7">
+        <v>6331</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>53722</v>
+      </c>
+      <c r="F7">
+        <v>657.7</v>
+      </c>
+      <c r="G7">
+        <v>4680138</v>
+      </c>
+      <c r="H7" s="12">
+        <v>43894</v>
+      </c>
+      <c r="I7" s="10">
+        <v>43909</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>43909</v>
+      </c>
+      <c r="L7" s="13">
+        <v>43959</v>
+      </c>
+      <c r="M7" s="10">
+        <v>43956</v>
+      </c>
+      <c r="N7">
+        <v>450</v>
+      </c>
+      <c r="O7">
+        <v>241.65</v>
+      </c>
+      <c r="P7">
+        <v>39557045</v>
+      </c>
+      <c r="Q7">
+        <v>12.8</v>
+      </c>
+      <c r="R7">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="S7">
+        <v>268818</v>
+      </c>
+      <c r="T7">
+        <v>0.24</v>
+      </c>
+      <c r="U7">
+        <v>0.09</v>
+      </c>
+      <c r="V7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.26</v>
+      </c>
+      <c r="X7">
+        <v>0.12</v>
+      </c>
+      <c r="Y7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>39555268.359434389</v>
+      </c>
+      <c r="AA7" s="32">
+        <f t="shared" si="1"/>
+        <v>1.3581503103918819E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>34065</v>
+      </c>
+      <c r="C8">
+        <v>1701</v>
+      </c>
+      <c r="D8">
+        <v>299</v>
+      </c>
+      <c r="E8">
+        <v>2043</v>
+      </c>
+      <c r="F8">
+        <v>598.1</v>
+      </c>
+      <c r="G8">
+        <v>350717</v>
+      </c>
+      <c r="H8" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I8" s="10">
+        <v>43916</v>
+      </c>
+      <c r="J8" s="13">
+        <v>43948</v>
+      </c>
+      <c r="K8" s="10">
+        <v>43916</v>
+      </c>
+      <c r="L8" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M8" s="10">
+        <v>43944</v>
+      </c>
+      <c r="N8">
+        <v>618</v>
+      </c>
+      <c r="O8">
+        <v>54.72</v>
+      </c>
+      <c r="P8">
+        <v>5695564</v>
+      </c>
+      <c r="Q8">
+        <v>9.6</v>
+      </c>
+      <c r="R8">
+        <v>31.3</v>
+      </c>
+      <c r="S8">
+        <v>38526</v>
+      </c>
+      <c r="T8">
+        <v>0.24</v>
+      </c>
+      <c r="U8">
+        <v>0.09</v>
+      </c>
+      <c r="V8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.26</v>
+      </c>
+      <c r="X8">
+        <v>0.13</v>
+      </c>
+      <c r="Y8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>5695535.8635679651</v>
+      </c>
+      <c r="AA8" s="32">
+        <f t="shared" si="1"/>
+        <v>3.5870198150594451E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>46717</v>
+      </c>
+      <c r="C9">
+        <v>4335</v>
+      </c>
+      <c r="D9">
+        <v>121.3</v>
+      </c>
+      <c r="E9">
+        <v>511</v>
+      </c>
+      <c r="F9">
+        <v>1307.5999999999999</v>
+      </c>
+      <c r="G9">
+        <v>499669</v>
+      </c>
+      <c r="H9" s="12">
+        <v>43900</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>43913</v>
+      </c>
+      <c r="L9" s="13">
+        <v>43971</v>
+      </c>
+      <c r="M9" s="10">
+        <v>43924</v>
+      </c>
+      <c r="N9">
+        <v>649</v>
+      </c>
+      <c r="O9">
+        <v>644.54</v>
+      </c>
+      <c r="P9">
+        <v>3572665</v>
+      </c>
+      <c r="Q9">
+        <v>10.4</v>
+      </c>
+      <c r="R9">
+        <v>36</v>
+      </c>
+      <c r="S9">
+        <v>31230</v>
+      </c>
+      <c r="T9">
+        <v>0.22</v>
+      </c>
+      <c r="U9">
+        <v>0.08</v>
+      </c>
+      <c r="V9">
+        <v>0.11</v>
+      </c>
+      <c r="W9">
+        <v>0.27</v>
+      </c>
+      <c r="X9">
+        <v>0.15</v>
+      </c>
+      <c r="Y9">
+        <v>0.17</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>3572728.6631997558</v>
+      </c>
+      <c r="AA9" s="32">
+        <f t="shared" si="1"/>
+        <v>1.4302793415673094E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>12348</v>
+      </c>
+      <c r="C10">
+        <v>512</v>
+      </c>
+      <c r="D10">
+        <v>52.9</v>
+      </c>
+      <c r="E10">
+        <v>1095</v>
+      </c>
+      <c r="F10">
+        <v>1276.7</v>
+      </c>
+      <c r="G10">
+        <v>123941</v>
+      </c>
+      <c r="H10" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I10" s="10">
+        <v>43914</v>
+      </c>
+      <c r="J10" s="13">
+        <v>43983</v>
+      </c>
+      <c r="K10" s="10">
+        <v>43914</v>
+      </c>
+      <c r="L10" s="13">
+        <v>43959</v>
+      </c>
+      <c r="M10" s="10">
+        <v>43952</v>
+      </c>
+      <c r="N10">
+        <v>400</v>
+      </c>
+      <c r="O10">
+        <v>388.58</v>
+      </c>
+      <c r="P10">
+        <v>967171</v>
+      </c>
+      <c r="Q10">
+        <v>12.5</v>
+      </c>
+      <c r="R10">
+        <v>41.3</v>
+      </c>
+      <c r="S10">
+        <v>9433</v>
+      </c>
+      <c r="T10">
+        <v>0.22</v>
+      </c>
+      <c r="U10">
+        <v>0.08</v>
+      </c>
+      <c r="V10">
+        <v>0.12</v>
+      </c>
+      <c r="W10">
+        <v>0.25</v>
+      </c>
+      <c r="X10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.19</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>967181.01355055999</v>
+      </c>
+      <c r="AA10" s="32">
+        <f t="shared" si="1"/>
+        <v>1.1321562196307095E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>10482</v>
+      </c>
+      <c r="C11">
+        <v>559</v>
+      </c>
+      <c r="D11">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E11">
+        <v>266</v>
+      </c>
+      <c r="F11">
+        <v>1492.2</v>
+      </c>
+      <c r="G11">
+        <v>105993</v>
+      </c>
+      <c r="H11" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I11" s="10">
+        <v>43922</v>
+      </c>
+      <c r="J11" s="13">
+        <v>43980</v>
+      </c>
+      <c r="K11" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L11" s="13">
+        <v>43980</v>
+      </c>
+      <c r="M11" s="10">
+        <v>43936</v>
+      </c>
+      <c r="N11">
+        <v>444</v>
+      </c>
+      <c r="O11">
+        <v>11496.81</v>
+      </c>
+      <c r="P11">
+        <v>702455</v>
+      </c>
+      <c r="Q11">
+        <v>16.2</v>
+      </c>
+      <c r="R11">
+        <v>31.8</v>
+      </c>
+      <c r="S11">
+        <v>5008</v>
+      </c>
+      <c r="T11">
+        <v>0.2</v>
+      </c>
+      <c r="U11">
+        <v>0.1</v>
+      </c>
+      <c r="V11">
+        <v>0.21</v>
+      </c>
+      <c r="W11">
+        <v>0.27</v>
+      </c>
+      <c r="X11">
+        <v>0.1</v>
+      </c>
+      <c r="Y11">
+        <v>0.12</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>702452.7543224768</v>
+      </c>
+      <c r="AA11" s="32">
+        <f t="shared" si="1"/>
+        <v>3.7867315397824844E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>197076</v>
+      </c>
+      <c r="C12">
+        <v>3731</v>
+      </c>
+      <c r="D12">
+        <v>17.5</v>
+      </c>
+      <c r="E12">
+        <v>66984</v>
+      </c>
+      <c r="F12">
+        <v>925.3</v>
+      </c>
+      <c r="G12">
+        <v>2200199</v>
+      </c>
+      <c r="H12" s="12">
+        <v>43899</v>
+      </c>
+      <c r="I12" s="10">
+        <v>43924</v>
+      </c>
+      <c r="J12" s="13">
+        <v>43969</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>43969</v>
+      </c>
+      <c r="M12" s="10">
+        <v>43962</v>
+      </c>
+      <c r="N12">
+        <v>275</v>
+      </c>
+      <c r="O12">
+        <v>323.89999999999998</v>
+      </c>
+      <c r="P12">
+        <v>21299325</v>
+      </c>
+      <c r="Q12">
+        <v>13.6</v>
+      </c>
+      <c r="R12">
+        <v>42.1</v>
+      </c>
+      <c r="S12">
+        <v>205426</v>
+      </c>
+      <c r="T12">
+        <v>0.21</v>
+      </c>
+      <c r="U12">
+        <v>0.08</v>
+      </c>
+      <c r="V12">
+        <v>0.12</v>
+      </c>
+      <c r="W12">
+        <v>0.25</v>
+      </c>
+      <c r="X12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>0.21</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>21298605.857559714</v>
+      </c>
+      <c r="AA12" s="32">
+        <f t="shared" si="1"/>
+        <v>3.1449945807708697E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>95516</v>
+      </c>
+      <c r="C13">
+        <v>2860</v>
+      </c>
+      <c r="D13">
+        <v>27.2</v>
+      </c>
+      <c r="E13">
+        <v>20531</v>
+      </c>
+      <c r="F13">
+        <v>908</v>
+      </c>
+      <c r="G13">
+        <v>949185</v>
+      </c>
+      <c r="H13" s="12">
+        <v>43904</v>
+      </c>
+      <c r="I13" s="10">
+        <v>43924</v>
+      </c>
+      <c r="J13" s="13">
+        <v>43952</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M13" s="10">
+        <v>43948</v>
+      </c>
+      <c r="N13">
+        <v>365</v>
+      </c>
+      <c r="O13">
+        <v>177.02</v>
+      </c>
+      <c r="P13">
+        <v>10519475</v>
+      </c>
+      <c r="Q13">
+        <v>14.3</v>
+      </c>
+      <c r="R13">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S13">
+        <v>85202</v>
+      </c>
+      <c r="T13">
+        <v>0.26</v>
+      </c>
+      <c r="U13">
+        <v>0.09</v>
+      </c>
+      <c r="V13">
+        <v>0.12</v>
+      </c>
+      <c r="W13">
+        <v>0.27</v>
+      </c>
+      <c r="X13">
+        <v>0.12</v>
+      </c>
+      <c r="Y13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>10519383.259911895</v>
+      </c>
+      <c r="AA13" s="32">
+        <f t="shared" si="1"/>
+        <v>1.9517303907198792E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>939</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1.3</v>
+      </c>
+      <c r="E14">
+        <v>137</v>
+      </c>
+      <c r="F14">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G14">
+        <v>84325</v>
+      </c>
+      <c r="H14" s="12">
+        <v>43894</v>
+      </c>
+      <c r="I14" s="10">
+        <v>43915</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L14" s="13">
+        <v>43958</v>
+      </c>
+      <c r="M14" s="10">
+        <v>43937</v>
+      </c>
+      <c r="N14">
+        <v>648</v>
+      </c>
+      <c r="O14">
+        <v>129.94</v>
+      </c>
+      <c r="P14">
+        <v>1420491</v>
+      </c>
+      <c r="Q14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R14">
+        <v>39.1</v>
+      </c>
+      <c r="S14">
+        <v>11415</v>
+      </c>
+      <c r="T14">
+        <v>0.23</v>
+      </c>
+      <c r="U14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V14">
+        <v>0.12</v>
+      </c>
+      <c r="W14">
+        <v>0.25</v>
+      </c>
+      <c r="X14">
+        <v>0.13</v>
+      </c>
+      <c r="Y14">
+        <v>0.19</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>1420574.8865355523</v>
+      </c>
+      <c r="AA14" s="32">
+        <f t="shared" si="1"/>
+        <v>9.6439829605963776E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>7733</v>
+      </c>
+      <c r="C15">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>5.3</v>
+      </c>
+      <c r="E15">
+        <v>2414</v>
+      </c>
+      <c r="F15">
+        <v>440.8</v>
+      </c>
+      <c r="G15">
+        <v>104266</v>
+      </c>
+      <c r="H15" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I15" s="10">
+        <v>43915</v>
+      </c>
+      <c r="J15" s="13">
+        <v>43952</v>
+      </c>
+      <c r="K15" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L15" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>448</v>
+      </c>
+      <c r="O15">
+        <v>20.99</v>
+      </c>
+      <c r="P15">
+        <v>1754208</v>
+      </c>
+      <c r="Q15">
+        <v>11.8</v>
+      </c>
+      <c r="R15">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S15">
+        <v>14261</v>
+      </c>
+      <c r="T15">
+        <v>0.27</v>
+      </c>
+      <c r="U15">
+        <v>0.09</v>
+      </c>
+      <c r="V15">
+        <v>0.12</v>
+      </c>
+      <c r="W15">
+        <v>0.24</v>
+      </c>
+      <c r="X15">
+        <v>0.12</v>
+      </c>
+      <c r="Y15">
+        <v>0.16</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>1754310.3448275861</v>
+      </c>
+      <c r="AA15" s="32">
+        <f t="shared" si="1"/>
+        <v>1.376039312039312E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>148373</v>
+      </c>
+      <c r="C16">
+        <v>7230</v>
+      </c>
+      <c r="D16">
+        <v>56.7</v>
+      </c>
+      <c r="E16">
+        <v>6243</v>
+      </c>
+      <c r="F16">
+        <v>1164.5</v>
+      </c>
+      <c r="G16">
+        <v>1762828</v>
+      </c>
+      <c r="H16" s="12">
+        <v>43899</v>
+      </c>
+      <c r="I16" s="10">
+        <v>43911</v>
+      </c>
+      <c r="J16" s="13">
+        <v>43980</v>
+      </c>
+      <c r="K16" s="10">
+        <v>43911</v>
+      </c>
+      <c r="L16" s="13">
+        <v>43980</v>
+      </c>
+      <c r="M16" s="10">
+        <v>43952</v>
+      </c>
+      <c r="N16">
+        <v>484</v>
+      </c>
+      <c r="O16">
+        <v>220</v>
+      </c>
+      <c r="P16">
+        <v>12741080</v>
+      </c>
+      <c r="Q16">
+        <v>12.1</v>
+      </c>
+      <c r="R16">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S16">
+        <v>110022</v>
+      </c>
+      <c r="T16">
+        <v>0.24</v>
+      </c>
+      <c r="U16">
+        <v>0.09</v>
+      </c>
+      <c r="V16">
+        <v>0.12</v>
+      </c>
+      <c r="W16">
+        <v>0.26</v>
+      </c>
+      <c r="X16">
+        <v>0.13</v>
+      </c>
+      <c r="Y16">
+        <v>0.15</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>12741348.218119364</v>
+      </c>
+      <c r="AA16" s="32">
+        <f t="shared" si="1"/>
+        <v>4.8997954479588601E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>48008</v>
+      </c>
+      <c r="C17">
+        <v>2693</v>
+      </c>
+      <c r="D17">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E17">
+        <v>3433</v>
+      </c>
+      <c r="F17">
+        <v>717.4</v>
+      </c>
+      <c r="G17">
+        <v>521722</v>
+      </c>
+      <c r="H17" s="12">
+        <v>43896</v>
+      </c>
+      <c r="I17" s="10">
+        <v>43915</v>
+      </c>
+      <c r="J17" s="13">
+        <v>43969</v>
+      </c>
+      <c r="K17" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L17" s="13">
+        <v>43969</v>
+      </c>
+      <c r="M17" s="10">
+        <v>43952</v>
+      </c>
+      <c r="N17">
+        <v>390</v>
+      </c>
+      <c r="O17">
+        <v>183.74</v>
+      </c>
+      <c r="P17">
+        <v>6691878</v>
+      </c>
+      <c r="Q17">
+        <v>13.1</v>
+      </c>
+      <c r="R17">
+        <v>39.9</v>
+      </c>
+      <c r="S17">
+        <v>65693</v>
+      </c>
+      <c r="T17">
+        <v>0.25</v>
+      </c>
+      <c r="U17">
+        <v>0.09</v>
+      </c>
+      <c r="V17">
+        <v>0.12</v>
+      </c>
+      <c r="W17">
+        <v>0.25</v>
+      </c>
+      <c r="X17">
+        <v>0.13</v>
+      </c>
+      <c r="Y17">
+        <v>0.16</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>6691943.1279620854</v>
+      </c>
+      <c r="AA17" s="32">
+        <f t="shared" si="1"/>
+        <v>5.1300495750708215E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>31353</v>
+      </c>
+      <c r="C18">
+        <v>721</v>
+      </c>
+      <c r="D18">
+        <v>22.8</v>
+      </c>
+      <c r="E18">
+        <v>3341</v>
+      </c>
+      <c r="F18">
+        <v>993.4</v>
+      </c>
+      <c r="G18">
+        <v>332472</v>
+      </c>
+      <c r="H18" s="12">
+        <v>43899</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>43916</v>
+      </c>
+      <c r="L18" s="13">
+        <v>43966</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>481</v>
+      </c>
+      <c r="O18">
+        <v>56.09</v>
+      </c>
+      <c r="P18">
+        <v>3156145</v>
+      </c>
+      <c r="Q18">
+        <v>11.2</v>
+      </c>
+      <c r="R18">
+        <v>36.9</v>
+      </c>
+      <c r="S18">
+        <v>30367</v>
+      </c>
+      <c r="T18">
+        <v>0.25</v>
+      </c>
+      <c r="U18">
+        <v>0.09</v>
+      </c>
+      <c r="V18">
+        <v>0.12</v>
+      </c>
+      <c r="W18">
+        <v>0.24</v>
+      </c>
+      <c r="X18">
+        <v>0.13</v>
+      </c>
+      <c r="Y18">
+        <v>0.17</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>3156130.4610428829</v>
+      </c>
+      <c r="AA18" s="32">
+        <f t="shared" si="1"/>
+        <v>1.058574745638376E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>15919</v>
+      </c>
+      <c r="C19">
+        <v>277</v>
+      </c>
+      <c r="D19">
+        <v>9.5</v>
+      </c>
+      <c r="E19">
+        <v>2381</v>
+      </c>
+      <c r="F19">
+        <v>546.79999999999995</v>
+      </c>
+      <c r="G19">
+        <v>191561</v>
+      </c>
+      <c r="H19" s="12">
+        <v>43902</v>
+      </c>
+      <c r="I19" s="10">
+        <v>43920</v>
+      </c>
+      <c r="J19" s="13">
+        <v>43955</v>
+      </c>
+      <c r="K19" s="10">
+        <v>43920</v>
+      </c>
+      <c r="L19" s="13">
+        <v>43955</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>488</v>
+      </c>
+      <c r="O19">
+        <v>35.39</v>
+      </c>
+      <c r="P19">
+        <v>2911505</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>38</v>
+      </c>
+      <c r="S19">
+        <v>27537</v>
+      </c>
+      <c r="T19">
+        <v>0.26</v>
+      </c>
+      <c r="U19">
+        <v>0.09</v>
+      </c>
+      <c r="V19">
+        <v>0.12</v>
+      </c>
+      <c r="W19">
+        <v>0.24</v>
+      </c>
+      <c r="X19">
+        <v>0.13</v>
+      </c>
+      <c r="Y19">
+        <v>0.16</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>2911302.1214337968</v>
+      </c>
+      <c r="AA19" s="32">
+        <f t="shared" si="1"/>
+        <v>8.1784710094855194E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>16376</v>
+      </c>
+      <c r="C20">
+        <v>585</v>
+      </c>
+      <c r="D20">
+        <v>13.1</v>
+      </c>
+      <c r="E20">
+        <v>1209</v>
+      </c>
+      <c r="F20">
+        <v>366.5</v>
+      </c>
+      <c r="H20" s="12">
+        <v>43896</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>43916</v>
+      </c>
+      <c r="L20" s="13">
+        <v>43962</v>
+      </c>
+      <c r="M20" s="10">
+        <v>43962</v>
+      </c>
+      <c r="N20">
+        <v>552</v>
+      </c>
+      <c r="O20">
+        <v>110.58</v>
+      </c>
+      <c r="P20">
+        <v>4468402</v>
+      </c>
+      <c r="Q20">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="R20">
+        <v>43.6</v>
+      </c>
+      <c r="S20">
+        <v>48707</v>
+      </c>
+      <c r="T20">
+        <v>0.24</v>
+      </c>
+      <c r="U20">
+        <v>0.09</v>
+      </c>
+      <c r="V20">
+        <v>0.12</v>
+      </c>
+      <c r="W20">
+        <v>0.26</v>
+      </c>
+      <c r="X20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.16</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>4468212.8240109142</v>
+      </c>
+      <c r="AA20" s="32">
+        <f t="shared" si="1"/>
+        <v>2.7057797997068878E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>65226</v>
+      </c>
+      <c r="C21">
+        <v>3288</v>
+      </c>
+      <c r="D21">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E21">
+        <v>10457</v>
+      </c>
+      <c r="F21">
+        <v>1399.7</v>
+      </c>
+      <c r="G21">
+        <v>802454</v>
+      </c>
+      <c r="H21" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I21" s="10">
+        <v>43913</v>
+      </c>
+      <c r="J21" s="13">
+        <v>43966</v>
+      </c>
+      <c r="K21" s="10">
+        <v>43913</v>
+      </c>
+      <c r="L21" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M21" s="10">
+        <v>43952</v>
+      </c>
+      <c r="N21">
+        <v>247</v>
+      </c>
+      <c r="O21">
+        <v>88.97</v>
+      </c>
+      <c r="P21">
+        <v>4659978</v>
+      </c>
+      <c r="Q21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="R21">
+        <v>42.1</v>
+      </c>
+      <c r="S21">
+        <v>46048</v>
+      </c>
+      <c r="T21">
+        <v>0.25</v>
+      </c>
+      <c r="U21">
+        <v>0.09</v>
+      </c>
+      <c r="V21">
+        <v>0.12</v>
+      </c>
+      <c r="W21">
+        <v>0.25</v>
+      </c>
+      <c r="X21">
+        <v>0.13</v>
+      </c>
+      <c r="Y21">
+        <v>0.15</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>4659998.5711223828</v>
+      </c>
+      <c r="AA21" s="32">
+        <f t="shared" si="1"/>
+        <v>2.2439921043755561E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>3423</v>
+      </c>
+      <c r="C22">
+        <v>109</v>
+      </c>
+      <c r="D22">
+        <v>8.1</v>
+      </c>
+      <c r="E22">
+        <v>232</v>
+      </c>
+      <c r="F22">
+        <v>255.8</v>
+      </c>
+      <c r="G22">
+        <v>107932</v>
+      </c>
+      <c r="H22" s="12">
+        <v>43905</v>
+      </c>
+      <c r="I22" s="10">
+        <v>43922</v>
+      </c>
+      <c r="J22" s="13">
+        <v>43982</v>
+      </c>
+      <c r="K22" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L22" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M22" s="10">
+        <v>43952</v>
+      </c>
+      <c r="N22">
+        <v>445</v>
+      </c>
+      <c r="O22">
+        <v>37.83</v>
+      </c>
+      <c r="P22">
+        <v>1338404</v>
+      </c>
+      <c r="Q22">
+        <v>11.6</v>
+      </c>
+      <c r="R22">
+        <v>42.5</v>
+      </c>
+      <c r="S22">
+        <v>14715</v>
+      </c>
+      <c r="T22">
+        <v>0.19</v>
+      </c>
+      <c r="U22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V22">
+        <v>0.11</v>
+      </c>
+      <c r="W22">
+        <v>0.26</v>
+      </c>
+      <c r="X22">
+        <v>0.16</v>
+      </c>
+      <c r="Y22">
+        <v>0.21</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="0"/>
+        <v>1338154.8084440969</v>
+      </c>
+      <c r="AA22" s="32">
+        <f t="shared" si="1"/>
+        <v>1.7337306456324862E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>69904</v>
+      </c>
+      <c r="C23">
+        <v>3246</v>
+      </c>
+      <c r="D23">
+        <v>53.7</v>
+      </c>
+      <c r="E23">
+        <v>3127</v>
+      </c>
+      <c r="F23">
+        <v>1156.8</v>
+      </c>
+      <c r="G23">
+        <v>579962</v>
+      </c>
+      <c r="H23" s="12">
+        <v>43895</v>
+      </c>
+      <c r="I23" s="10">
+        <v>43920</v>
+      </c>
+      <c r="J23" s="13">
+        <v>43966</v>
+      </c>
+      <c r="K23" s="10">
+        <v>43913</v>
+      </c>
+      <c r="L23" s="13">
+        <v>43966</v>
+      </c>
+      <c r="M23" s="10">
+        <v>43939</v>
+      </c>
+      <c r="N23">
+        <v>430</v>
+      </c>
+      <c r="O23">
+        <v>487.08</v>
+      </c>
+      <c r="P23">
+        <v>6042718</v>
+      </c>
+      <c r="Q23">
+        <v>9</v>
+      </c>
+      <c r="R23">
+        <v>37.1</v>
+      </c>
+      <c r="S23">
+        <v>50568</v>
+      </c>
+      <c r="T23">
+        <v>0.23</v>
+      </c>
+      <c r="U23">
+        <v>0.08</v>
+      </c>
+      <c r="V23">
+        <v>0.12</v>
+      </c>
+      <c r="W23">
+        <v>0.27</v>
+      </c>
+      <c r="X23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>0.15</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="0"/>
+        <v>6042876.9017980639</v>
+      </c>
+      <c r="AA23" s="32">
+        <f t="shared" si="1"/>
+        <v>5.174687571526665E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24">
+        <v>109974</v>
+      </c>
+      <c r="C24">
+        <v>8183</v>
+      </c>
+      <c r="D24">
+        <v>118.6</v>
+      </c>
+      <c r="E24">
+        <v>1531</v>
+      </c>
+      <c r="F24">
+        <v>1593.3</v>
+      </c>
+      <c r="G24">
+        <v>891685</v>
+      </c>
+      <c r="H24" s="12">
+        <v>43900</v>
+      </c>
+      <c r="I24" s="10">
+        <v>43914</v>
+      </c>
+      <c r="J24" s="13">
+        <v>43969</v>
+      </c>
+      <c r="K24" s="10">
+        <v>43914</v>
+      </c>
+      <c r="L24" s="13">
+        <v>43969</v>
+      </c>
+      <c r="M24" s="10">
+        <v>43957</v>
+      </c>
+      <c r="N24">
+        <v>823</v>
+      </c>
+      <c r="O24">
+        <v>653.98</v>
+      </c>
+      <c r="P24">
+        <v>6902149</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>34.6</v>
+      </c>
+      <c r="S24">
+        <v>59152</v>
+      </c>
+      <c r="T24">
+        <v>0.21</v>
+      </c>
+      <c r="U24">
+        <v>0.09</v>
+      </c>
+      <c r="V24">
+        <v>0.13</v>
+      </c>
+      <c r="W24">
+        <v>0.26</v>
+      </c>
+      <c r="X24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y24">
+        <v>0.17</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>6902278.2903408026</v>
+      </c>
+      <c r="AA24" s="32">
+        <f t="shared" si="1"/>
+        <v>2.2181081892083581E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>72941</v>
+      </c>
+      <c r="C25">
+        <v>6218</v>
+      </c>
+      <c r="D25">
+        <v>62.3</v>
+      </c>
+      <c r="E25">
+        <v>3262</v>
+      </c>
+      <c r="F25">
+        <v>730.4</v>
+      </c>
+      <c r="G25">
+        <v>1146819</v>
+      </c>
+      <c r="H25" s="12">
+        <v>43900</v>
+      </c>
+      <c r="I25" s="10">
+        <v>43914</v>
+      </c>
+      <c r="J25" s="13">
+        <v>43983</v>
+      </c>
+      <c r="K25" s="10">
+        <v>43914</v>
+      </c>
+      <c r="L25" s="13">
+        <v>43977</v>
+      </c>
+      <c r="M25" s="10">
+        <v>43947</v>
+      </c>
+      <c r="N25">
+        <v>362</v>
+      </c>
+      <c r="O25">
+        <v>103.36</v>
+      </c>
+      <c r="P25">
+        <v>9995915</v>
+      </c>
+      <c r="Q25">
+        <v>14.1</v>
+      </c>
+      <c r="R25">
+        <v>41.2</v>
+      </c>
+      <c r="S25">
+        <v>98903</v>
+      </c>
+      <c r="T25">
+        <v>0.23</v>
+      </c>
+      <c r="U25">
+        <v>0.09</v>
+      </c>
+      <c r="V25">
+        <v>0.12</v>
+      </c>
+      <c r="W25">
+        <v>0.25</v>
+      </c>
+      <c r="X25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y25">
+        <v>0.17</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>9986445.7831325307</v>
+      </c>
+      <c r="AA25" s="32">
+        <f t="shared" si="1"/>
+        <v>3.2664273865178701E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>38569</v>
+      </c>
+      <c r="C26">
+        <v>1511</v>
+      </c>
+      <c r="D26">
+        <v>26.9</v>
+      </c>
+      <c r="E26">
+        <v>3020</v>
+      </c>
+      <c r="F26">
+        <v>687.4</v>
+      </c>
+      <c r="G26">
+        <v>674015</v>
+      </c>
+      <c r="H26" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I26" s="10">
+        <v>43918</v>
+      </c>
+      <c r="J26" s="13">
+        <v>43969</v>
+      </c>
+      <c r="K26" s="10">
+        <v>43918</v>
+      </c>
+      <c r="L26" s="13">
+        <v>43948</v>
+      </c>
+      <c r="M26" s="10">
+        <v>43983</v>
+      </c>
+      <c r="N26">
+        <v>462</v>
+      </c>
+      <c r="O26">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="P26">
+        <v>5611179</v>
+      </c>
+      <c r="Q26">
+        <v>9.6</v>
+      </c>
+      <c r="R26">
+        <v>33.9</v>
+      </c>
+      <c r="S26">
+        <v>44745</v>
+      </c>
+      <c r="T26">
+        <v>0.24</v>
+      </c>
+      <c r="U26">
+        <v>0.08</v>
+      </c>
+      <c r="V26">
+        <v>0.13</v>
+      </c>
+      <c r="W26">
+        <v>0.25</v>
+      </c>
+      <c r="X26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y26">
+        <v>0.16</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>5610852.4876345657</v>
+      </c>
+      <c r="AA26" s="32">
+        <f t="shared" si="1"/>
+        <v>5.3824263009152418E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>31257</v>
+      </c>
+      <c r="C27">
+        <v>1114</v>
+      </c>
+      <c r="D27">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E27">
+        <v>5365</v>
+      </c>
+      <c r="F27">
+        <v>1046.5999999999999</v>
+      </c>
+      <c r="G27">
+        <v>310141</v>
+      </c>
+      <c r="H27" s="12">
+        <v>43904</v>
+      </c>
+      <c r="I27" s="10">
+        <v>43924</v>
+      </c>
+      <c r="J27" s="13">
+        <v>43948</v>
+      </c>
+      <c r="K27" s="10">
+        <v>43924</v>
+      </c>
+      <c r="L27" s="13">
+        <v>43948</v>
+      </c>
+      <c r="M27" s="10">
+        <v>43958</v>
+      </c>
+      <c r="N27">
+        <v>235</v>
+      </c>
+      <c r="O27">
+        <v>61.66</v>
+      </c>
+      <c r="P27">
+        <v>2986530</v>
+      </c>
+      <c r="Q27">
+        <v>19.7</v>
+      </c>
+      <c r="R27">
+        <v>42.5</v>
+      </c>
+      <c r="S27">
+        <v>32301</v>
+      </c>
+      <c r="T27">
+        <v>0.26</v>
+      </c>
+      <c r="U27">
+        <v>0.09</v>
+      </c>
+      <c r="V27">
+        <v>0.11</v>
+      </c>
+      <c r="W27">
+        <v>0.25</v>
+      </c>
+      <c r="X27">
+        <v>0.13</v>
+      </c>
+      <c r="Y27">
+        <v>0.16</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>2986527.8043187466</v>
+      </c>
+      <c r="AA27" s="32">
+        <f t="shared" si="1"/>
+        <v>1.7964004862910706E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>23436</v>
+      </c>
+      <c r="C28">
+        <v>1028</v>
+      </c>
+      <c r="D28">
+        <v>16.8</v>
+      </c>
+      <c r="E28">
+        <v>3175</v>
+      </c>
+      <c r="F28">
+        <v>382.5</v>
+      </c>
+      <c r="G28">
+        <v>419509</v>
+      </c>
+      <c r="H28" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I28" s="10">
+        <v>43927</v>
+      </c>
+      <c r="J28" s="13">
+        <v>43955</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <v>43955</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>320</v>
+      </c>
+      <c r="O28">
+        <v>87.89</v>
+      </c>
+      <c r="P28">
+        <v>6126452</v>
+      </c>
+      <c r="Q28">
+        <v>13.2</v>
+      </c>
+      <c r="R28">
+        <v>40.5</v>
+      </c>
+      <c r="S28">
+        <v>63117</v>
+      </c>
+      <c r="T28">
+        <v>0.24</v>
+      </c>
+      <c r="U28">
+        <v>0.09</v>
+      </c>
+      <c r="V28">
+        <v>0.12</v>
+      </c>
+      <c r="W28">
+        <v>0.25</v>
+      </c>
+      <c r="X28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>0.17</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>6127058.823529412</v>
+      </c>
+      <c r="AA28" s="32">
+        <f t="shared" si="1"/>
+        <v>5.1819316436251916E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>1249</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E29">
+        <v>397</v>
+      </c>
+      <c r="F29">
+        <v>117.6</v>
+      </c>
+      <c r="G29">
+        <v>100106</v>
+      </c>
+      <c r="H29" s="12">
+        <v>43902</v>
+      </c>
+      <c r="I29" s="10">
+        <v>43918</v>
+      </c>
+      <c r="J29" s="13">
+        <v>43947</v>
+      </c>
+      <c r="K29" s="10">
+        <v>43918</v>
+      </c>
+      <c r="L29" s="13">
+        <v>43948</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>552</v>
+      </c>
+      <c r="O29">
+        <v>7.22</v>
+      </c>
+      <c r="P29">
+        <v>1062305</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <v>39</v>
+      </c>
+      <c r="S29">
+        <v>9992</v>
+      </c>
+      <c r="T29">
+        <v>0.23</v>
+      </c>
+      <c r="U29">
+        <v>0.08</v>
+      </c>
+      <c r="V29">
+        <v>0.11</v>
+      </c>
+      <c r="W29">
+        <v>0.24</v>
+      </c>
+      <c r="X29">
+        <v>0.15</v>
+      </c>
+      <c r="Y29">
+        <v>0.19</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>1062074.8299319728</v>
+      </c>
+      <c r="AA29" s="32">
+        <f t="shared" si="1"/>
+        <v>3.7379663730984788E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>19929</v>
+      </c>
+      <c r="C30">
+        <v>284</v>
+      </c>
+      <c r="D30">
+        <v>14.7</v>
+      </c>
+      <c r="E30">
+        <v>1154</v>
+      </c>
+      <c r="F30">
+        <v>1033</v>
+      </c>
+      <c r="G30">
+        <v>189928</v>
+      </c>
+      <c r="H30" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <v>43969</v>
+      </c>
+      <c r="M30" s="10">
+        <v>43955</v>
+      </c>
+      <c r="N30">
+        <v>440</v>
+      </c>
+      <c r="O30">
+        <v>24.94</v>
+      </c>
+      <c r="P30">
+        <v>1929268</v>
+      </c>
+      <c r="Q30">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>36.6</v>
+      </c>
+      <c r="S30">
+        <v>16904</v>
+      </c>
+      <c r="T30">
+        <v>0.26</v>
+      </c>
+      <c r="U30">
+        <v>0.09</v>
+      </c>
+      <c r="V30">
+        <v>0.12</v>
+      </c>
+      <c r="W30">
+        <v>0.25</v>
+      </c>
+      <c r="X30">
+        <v>0.13</v>
+      </c>
+      <c r="Y30">
+        <v>0.16</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>1929235.2371732818</v>
+      </c>
+      <c r="AA30" s="32">
+        <f t="shared" si="1"/>
+        <v>5.9816448391790855E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>22646</v>
+      </c>
+      <c r="C31">
+        <v>557</v>
+      </c>
+      <c r="D31">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E31">
+        <v>6070</v>
+      </c>
+      <c r="F31">
+        <v>746.3</v>
+      </c>
+      <c r="G31">
+        <v>307697</v>
+      </c>
+      <c r="H31" s="12">
+        <v>43902</v>
+      </c>
+      <c r="I31" s="10">
+        <v>43921</v>
+      </c>
+      <c r="J31" s="13">
+        <v>43960</v>
+      </c>
+      <c r="K31" s="10">
+        <v>43911</v>
+      </c>
+      <c r="L31" s="13">
+        <v>43960</v>
+      </c>
+      <c r="M31" s="10">
+        <v>43960</v>
+      </c>
+      <c r="N31">
+        <v>469</v>
+      </c>
+      <c r="O31">
+        <v>27.44</v>
+      </c>
+      <c r="P31">
+        <v>3034392</v>
+      </c>
+      <c r="Q31">
+        <v>12.9</v>
+      </c>
+      <c r="R31">
+        <v>36.1</v>
+      </c>
+      <c r="S31">
+        <v>24715</v>
+      </c>
+      <c r="T31">
+        <v>0.24</v>
+      </c>
+      <c r="U31">
+        <v>0.08</v>
+      </c>
+      <c r="V31">
+        <v>0.13</v>
+      </c>
+      <c r="W31">
+        <v>0.27</v>
+      </c>
+      <c r="X31">
+        <v>0.13</v>
+      </c>
+      <c r="Y31">
+        <v>0.16</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>3034436.5536647462</v>
+      </c>
+      <c r="AA31" s="32">
+        <f t="shared" si="1"/>
+        <v>2.000371368012011E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>5897</v>
+      </c>
+      <c r="C32">
+        <v>381</v>
+      </c>
+      <c r="D32">
+        <v>28.1</v>
+      </c>
+      <c r="E32">
+        <v>226</v>
+      </c>
+      <c r="F32">
+        <v>434.7</v>
+      </c>
+      <c r="G32">
+        <v>123749</v>
+      </c>
+      <c r="H32" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I32" s="10">
+        <v>43918</v>
+      </c>
+      <c r="J32" s="13">
+        <v>43998</v>
+      </c>
+      <c r="K32" s="10">
+        <v>43918</v>
+      </c>
+      <c r="L32" s="13">
+        <v>43962</v>
+      </c>
+      <c r="M32" s="10">
+        <v>43952</v>
+      </c>
+      <c r="N32">
+        <v>427</v>
+      </c>
+      <c r="O32">
+        <v>145.09</v>
+      </c>
+      <c r="P32">
+        <v>1356458</v>
+      </c>
+      <c r="Q32">
+        <v>7.6</v>
+      </c>
+      <c r="R32">
+        <v>40.5</v>
+      </c>
+      <c r="S32">
+        <v>12774</v>
+      </c>
+      <c r="T32">
+        <v>0.2</v>
+      </c>
+      <c r="U32">
+        <v>0.08</v>
+      </c>
+      <c r="V32">
+        <v>0.11</v>
+      </c>
+      <c r="W32">
+        <v>0.26</v>
+      </c>
+      <c r="X32">
+        <v>0.16</v>
+      </c>
+      <c r="Y32">
+        <v>0.18</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="0"/>
+        <v>1356567.7478720958</v>
+      </c>
+      <c r="AA32" s="32">
+        <f t="shared" si="1"/>
+        <v>1.6659691368492452E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>173402</v>
+      </c>
+      <c r="C33">
+        <v>15211</v>
+      </c>
+      <c r="D33">
+        <v>170.7</v>
+      </c>
+      <c r="E33">
+        <v>2529</v>
+      </c>
+      <c r="F33">
+        <v>1946.5</v>
+      </c>
+      <c r="G33">
+        <v>1534640</v>
+      </c>
+      <c r="H33" s="12">
+        <v>43899</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>43911</v>
+      </c>
+      <c r="L33" s="13">
+        <v>43969</v>
+      </c>
+      <c r="M33" s="10">
+        <v>43929</v>
+      </c>
+      <c r="N33">
+        <v>713</v>
+      </c>
+      <c r="O33">
+        <v>1021.27</v>
+      </c>
+      <c r="P33">
+        <v>8908520</v>
+      </c>
+      <c r="Q33">
+        <v>9.5</v>
+      </c>
+      <c r="R33">
+        <v>34.6</v>
+      </c>
+      <c r="S33">
+        <v>75765</v>
+      </c>
+      <c r="T33">
+        <v>0.23</v>
+      </c>
+      <c r="U33">
+        <v>0.08</v>
+      </c>
+      <c r="V33">
+        <v>0.11</v>
+      </c>
+      <c r="W33">
+        <v>0.27</v>
+      </c>
+      <c r="X33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y33">
+        <v>0.16</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="0"/>
+        <v>8908399.6917544305</v>
+      </c>
+      <c r="AA33" s="32">
+        <f t="shared" si="1"/>
+        <v>2.8388937267159552E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>13256</v>
+      </c>
+      <c r="C34">
+        <v>513</v>
+      </c>
+      <c r="D34">
+        <v>24.5</v>
+      </c>
+      <c r="E34">
+        <v>1637</v>
+      </c>
+      <c r="F34">
+        <v>632.6</v>
+      </c>
+      <c r="G34">
+        <v>372288</v>
+      </c>
+      <c r="H34" s="12">
+        <v>43901</v>
+      </c>
+      <c r="I34" s="10">
+        <v>43914</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>43914</v>
+      </c>
+      <c r="L34" s="13">
+        <v>43966</v>
+      </c>
+      <c r="M34" s="10">
+        <v>43957</v>
+      </c>
+      <c r="N34">
+        <v>511</v>
+      </c>
+      <c r="O34">
+        <v>17.23</v>
+      </c>
+      <c r="P34">
+        <v>2095428</v>
+      </c>
+      <c r="Q34">
+        <v>19.5</v>
+      </c>
+      <c r="R34">
+        <v>39.4</v>
+      </c>
+      <c r="S34">
+        <v>19007</v>
+      </c>
+      <c r="T34">
+        <v>0.24</v>
+      </c>
+      <c r="U34">
+        <v>0.09</v>
+      </c>
+      <c r="V34">
+        <v>0.12</v>
+      </c>
+      <c r="W34">
+        <v>0.24</v>
+      </c>
+      <c r="X34">
+        <v>0.13</v>
+      </c>
+      <c r="Y34">
+        <v>0.18</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="0"/>
+        <v>2095478.9756560228</v>
+      </c>
+      <c r="AA34" s="32">
+        <f t="shared" si="1"/>
+        <v>7.8120564272782136E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>398828</v>
+      </c>
+      <c r="C35">
+        <v>31906</v>
+      </c>
+      <c r="D35">
+        <v>354.29999999999995</v>
+      </c>
+      <c r="E35">
+        <v>5100</v>
+      </c>
+      <c r="F35">
+        <v>4220.3999999999996</v>
+      </c>
+      <c r="G35">
+        <v>4233803</v>
+      </c>
+      <c r="H35" s="12">
+        <v>43897</v>
+      </c>
+      <c r="I35" s="10">
+        <v>43912</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>43912</v>
+      </c>
+      <c r="L35" s="13">
+        <v>43966</v>
+      </c>
+      <c r="M35" s="10">
+        <v>43938</v>
+      </c>
+      <c r="N35">
+        <v>504</v>
+      </c>
+      <c r="O35">
+        <v>358.21</v>
+      </c>
+      <c r="P35">
+        <v>19542209</v>
+      </c>
+      <c r="Q35">
+        <v>13.6</v>
+      </c>
+      <c r="R35">
+        <v>36.9</v>
+      </c>
+      <c r="S35">
+        <v>157183</v>
+      </c>
+      <c r="T35">
+        <v>0.22</v>
+      </c>
+      <c r="U35">
+        <v>0.09</v>
+      </c>
+      <c r="V35">
+        <v>0.13</v>
+      </c>
+      <c r="W35">
+        <v>0.26</v>
+      </c>
+      <c r="X35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y35">
+        <v>0.16</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="0"/>
+        <v>9450004.73888731</v>
+      </c>
+      <c r="AA35" s="32">
+        <f t="shared" si="1"/>
+        <v>5.396822690483115E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>72983</v>
+      </c>
+      <c r="C36">
+        <v>1396</v>
+      </c>
+      <c r="D36">
+        <v>13.4</v>
+      </c>
+      <c r="E36">
+        <v>12446</v>
+      </c>
+      <c r="F36">
+        <v>702.9</v>
+      </c>
+      <c r="G36">
+        <v>1036838</v>
+      </c>
+      <c r="H36" s="12">
+        <v>43900</v>
+      </c>
+      <c r="I36" s="10">
+        <v>43920</v>
+      </c>
+      <c r="J36" s="13">
+        <v>43973</v>
+      </c>
+      <c r="K36" s="10">
+        <v>43920</v>
+      </c>
+      <c r="L36" s="13">
+        <v>43959</v>
+      </c>
+      <c r="M36" s="10">
+        <v>44008</v>
+      </c>
+      <c r="N36">
+        <v>350</v>
+      </c>
+      <c r="O36">
+        <v>192.94</v>
+      </c>
+      <c r="P36">
+        <v>10383620</v>
+      </c>
+      <c r="Q36">
+        <v>14</v>
+      </c>
+      <c r="R36">
+        <v>39</v>
+      </c>
+      <c r="S36">
+        <v>93885</v>
+      </c>
+      <c r="T36">
+        <v>0.24</v>
+      </c>
+      <c r="U36">
+        <v>0.08</v>
+      </c>
+      <c r="V36">
+        <v>0.12</v>
+      </c>
+      <c r="W36">
+        <v>0.26</v>
+      </c>
+      <c r="X36">
+        <v>0.13</v>
+      </c>
+      <c r="Y36">
+        <v>0.16</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="0"/>
+        <v>10383127.045098877</v>
+      </c>
+      <c r="AA36" s="32">
+        <f t="shared" si="1"/>
+        <v>1.1986754997739199E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>3816</v>
+      </c>
+      <c r="C37">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>10.5</v>
+      </c>
+      <c r="E37">
+        <v>358</v>
+      </c>
+      <c r="F37">
+        <v>502.1</v>
+      </c>
+      <c r="G37">
+        <v>113128</v>
+      </c>
+      <c r="H37" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M37" s="10">
+        <v>43949</v>
+      </c>
+      <c r="N37">
+        <v>618</v>
+      </c>
+      <c r="O37">
+        <v>10.75</v>
+      </c>
+      <c r="P37">
+        <v>760077</v>
+      </c>
+      <c r="Q37">
+        <v>10.7</v>
+      </c>
+      <c r="R37">
+        <v>34.6</v>
+      </c>
+      <c r="S37">
+        <v>6445</v>
+      </c>
+      <c r="T37">
+        <v>0.24</v>
+      </c>
+      <c r="U37">
+        <v>0.11</v>
+      </c>
+      <c r="V37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W37">
+        <v>0.23</v>
+      </c>
+      <c r="X37">
+        <v>0.13</v>
+      </c>
+      <c r="Y37">
+        <v>0.15</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="0"/>
+        <v>760007.96654052974</v>
+      </c>
+      <c r="AA37" s="32">
+        <f t="shared" si="1"/>
+        <v>4.7104769392033546E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>57151</v>
+      </c>
+      <c r="C38">
+        <v>2911</v>
+      </c>
+      <c r="D38">
+        <v>24.9</v>
+      </c>
+      <c r="E38">
+        <v>7696</v>
+      </c>
+      <c r="F38">
+        <v>488.9</v>
+      </c>
+      <c r="G38">
+        <v>868762</v>
+      </c>
+      <c r="H38" s="12">
+        <v>43899</v>
+      </c>
+      <c r="I38" s="10">
+        <v>43914</v>
+      </c>
+      <c r="J38" s="13">
+        <v>43971</v>
+      </c>
+      <c r="K38" s="10">
+        <v>43914</v>
+      </c>
+      <c r="L38" s="13">
+        <v>43955</v>
+      </c>
+      <c r="M38" s="10">
+        <v>43950</v>
+      </c>
+      <c r="N38">
+        <v>480</v>
+      </c>
+      <c r="O38">
+        <v>260.77</v>
+      </c>
+      <c r="P38">
+        <v>11689442</v>
+      </c>
+      <c r="Q38">
+        <v>13.9</v>
+      </c>
+      <c r="R38">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="S38">
+        <v>124264</v>
+      </c>
+      <c r="U38">
+        <v>0.09</v>
+      </c>
+      <c r="W38">
+        <v>0.25</v>
+      </c>
+      <c r="Y38">
+        <v>0.17</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="0"/>
+        <v>11689711.597463695</v>
+      </c>
+      <c r="AA38" s="32">
+        <f t="shared" si="1"/>
+        <v>6.5835670416965577E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39">
+        <v>15776</v>
+      </c>
+      <c r="C39">
+        <v>416</v>
+      </c>
+      <c r="D39">
+        <v>10.6</v>
+      </c>
+      <c r="E39">
+        <v>3409</v>
+      </c>
+      <c r="F39">
+        <v>400.1</v>
+      </c>
+      <c r="G39">
+        <v>364717</v>
+      </c>
+      <c r="H39" s="12">
+        <v>43905</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>43922</v>
+      </c>
+      <c r="L39" s="13">
+        <v>43945</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>539</v>
+      </c>
+      <c r="O39">
+        <v>56.41</v>
+      </c>
+      <c r="P39">
+        <v>3943079</v>
+      </c>
+      <c r="Q39">
+        <v>15.6</v>
+      </c>
+      <c r="R39">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="S39">
+        <v>40933</v>
+      </c>
+      <c r="T39">
+        <v>0.26</v>
+      </c>
+      <c r="U39">
+        <v>0.09</v>
+      </c>
+      <c r="V39">
+        <v>0.13</v>
+      </c>
+      <c r="W39">
+        <v>0.24</v>
+      </c>
+      <c r="X39">
+        <v>0.13</v>
+      </c>
+      <c r="Y39">
+        <v>0.16</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="0"/>
+        <v>3943014.2464383896</v>
+      </c>
+      <c r="AA39" s="32">
+        <f t="shared" si="1"/>
+        <v>8.6456700050709958E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40">
+        <v>10230</v>
+      </c>
+      <c r="C40">
+        <v>215</v>
+      </c>
+      <c r="D40">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E40">
+        <v>2136</v>
+      </c>
+      <c r="F40">
+        <v>244.1</v>
+      </c>
+      <c r="G40">
+        <v>264201</v>
+      </c>
+      <c r="H40" s="12">
+        <v>43898</v>
+      </c>
+      <c r="I40" s="10">
+        <v>43913</v>
+      </c>
+      <c r="J40" s="13">
+        <v>44001</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <v>43966</v>
+      </c>
+      <c r="M40" s="10">
+        <v>43960</v>
+      </c>
+      <c r="N40">
+        <v>648</v>
+      </c>
+      <c r="O40">
+        <v>42.6</v>
+      </c>
+      <c r="P40">
+        <v>4190713</v>
+      </c>
+      <c r="Q40">
+        <v>12.6</v>
+      </c>
+      <c r="R40">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="S40">
+        <v>36187</v>
+      </c>
+      <c r="T40">
+        <v>0.22</v>
+      </c>
+      <c r="U40">
+        <v>0.08</v>
+      </c>
+      <c r="V40">
+        <v>0.13</v>
+      </c>
+      <c r="W40">
+        <v>0.26</v>
+      </c>
+      <c r="X40">
+        <v>0.13</v>
+      </c>
+      <c r="Y40">
+        <v>0.18</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="0"/>
+        <v>4190905.3666530112</v>
+      </c>
+      <c r="AA40" s="32">
+        <f t="shared" si="1"/>
+        <v>5.0967507331378301E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41">
+        <v>90304</v>
+      </c>
+      <c r="C41">
+        <v>6754</v>
+      </c>
+      <c r="D41">
+        <v>52.7</v>
+      </c>
+      <c r="E41">
+        <v>4808</v>
+      </c>
+      <c r="F41">
+        <v>705.1</v>
+      </c>
+      <c r="G41">
+        <v>824700</v>
+      </c>
+      <c r="H41" s="12">
+        <v>43896</v>
+      </c>
+      <c r="I41" s="10">
+        <v>43922</v>
+      </c>
+      <c r="J41" s="13">
+        <v>43987</v>
+      </c>
+      <c r="K41" s="10">
+        <v>43909</v>
+      </c>
+      <c r="L41" s="13">
+        <v>43987</v>
+      </c>
+      <c r="M41" s="10">
+        <v>43940</v>
+      </c>
+      <c r="N41">
+        <v>572</v>
+      </c>
+      <c r="O41">
+        <v>278.08999999999997</v>
+      </c>
+      <c r="P41">
+        <v>12807060</v>
+      </c>
+      <c r="Q41">
+        <v>12.2</v>
+      </c>
+      <c r="R41">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="S41">
+        <v>134702</v>
+      </c>
+      <c r="T41">
+        <v>0.22</v>
+      </c>
+      <c r="U41">
+        <v>0.08</v>
+      </c>
+      <c r="V41">
+        <v>0.12</v>
+      </c>
+      <c r="W41">
+        <v>0.25</v>
+      </c>
+      <c r="X41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y41">
+        <v>0.18</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="0"/>
+        <v>12807261.381364344</v>
+      </c>
+      <c r="AA41" s="32">
+        <f t="shared" si="1"/>
+        <v>3.7541203047484058E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <v>16991</v>
+      </c>
+      <c r="C42">
+        <v>960</v>
+      </c>
+      <c r="D42">
+        <v>90.8</v>
+      </c>
+      <c r="E42">
+        <v>330</v>
+      </c>
+      <c r="F42">
+        <v>1607</v>
+      </c>
+      <c r="G42">
+        <v>250954</v>
+      </c>
+      <c r="H42" s="12">
+        <v>43899</v>
+      </c>
+      <c r="I42" s="10">
+        <v>43918</v>
+      </c>
+      <c r="J42" s="13">
+        <v>43960</v>
+      </c>
+      <c r="K42" s="10">
+        <v>43920</v>
+      </c>
+      <c r="L42" s="13">
+        <v>43960</v>
+      </c>
+      <c r="M42" s="10">
+        <v>43939</v>
+      </c>
+      <c r="N42">
+        <v>190</v>
+      </c>
+      <c r="O42">
+        <v>684.35</v>
+      </c>
+      <c r="P42">
+        <v>1057315</v>
+      </c>
+      <c r="Q42">
+        <v>12.9</v>
+      </c>
+      <c r="R42">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S42">
+        <v>10083</v>
+      </c>
+      <c r="T42">
+        <v>0.2</v>
+      </c>
+      <c r="U42">
+        <v>0.09</v>
+      </c>
+      <c r="V42">
+        <v>0.13</v>
+      </c>
+      <c r="W42">
+        <v>0.26</v>
+      </c>
+      <c r="X42">
+        <v>0.15</v>
+      </c>
+      <c r="Y42">
+        <v>0.17</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="0"/>
+        <v>1057311.7610454264</v>
+      </c>
+      <c r="AA42" s="32">
+        <f t="shared" si="1"/>
+        <v>3.1211229474427637E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43">
+        <v>44847</v>
+      </c>
+      <c r="C43">
+        <v>820</v>
+      </c>
+      <c r="D43">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E43">
+        <v>12908</v>
+      </c>
+      <c r="F43">
+        <v>882.1</v>
+      </c>
+      <c r="G43">
+        <v>430809</v>
+      </c>
+      <c r="H43" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I43" s="10">
+        <v>43928</v>
+      </c>
+      <c r="J43" s="13">
+        <v>43955</v>
+      </c>
+      <c r="K43" s="10">
+        <v>43922</v>
+      </c>
+      <c r="L43" s="13">
+        <v>43941</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>326</v>
+      </c>
+      <c r="O43">
+        <v>158.78</v>
+      </c>
+      <c r="P43">
+        <v>5084127</v>
+      </c>
+      <c r="Q43">
+        <v>15.3</v>
+      </c>
+      <c r="R43">
+        <v>41.4</v>
+      </c>
+      <c r="S43">
+        <v>50640</v>
+      </c>
+      <c r="T43">
+        <v>0.23</v>
+      </c>
+      <c r="U43">
+        <v>0.09</v>
+      </c>
+      <c r="V43">
+        <v>0.11</v>
+      </c>
+      <c r="W43">
+        <v>0.25</v>
+      </c>
+      <c r="X43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0.18</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="0"/>
+        <v>5084117.447001474</v>
+      </c>
+      <c r="AA43" s="32">
+        <f t="shared" si="1"/>
+        <v>2.5388870604499741E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <v>7063</v>
+      </c>
+      <c r="C44">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>437</v>
+      </c>
+      <c r="F44">
+        <v>800.6</v>
+      </c>
+      <c r="G44">
+        <v>84003</v>
+      </c>
+      <c r="H44" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>414</v>
+      </c>
+      <c r="O44">
+        <v>11.44</v>
+      </c>
+      <c r="P44">
+        <v>882235</v>
+      </c>
+      <c r="Q44">
+        <v>13.1</v>
+      </c>
+      <c r="R44">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="S44">
+        <v>7971</v>
+      </c>
+      <c r="T44">
+        <v>0.26</v>
+      </c>
+      <c r="U44">
+        <v>0.09</v>
+      </c>
+      <c r="V44">
+        <v>0.11</v>
+      </c>
+      <c r="W44">
+        <v>0.24</v>
+      </c>
+      <c r="X44">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0.16</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="0"/>
+        <v>882213.33999500365</v>
+      </c>
+      <c r="AA44" s="32">
+        <f t="shared" si="1"/>
+        <v>4.9534503751946768E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>51431</v>
+      </c>
+      <c r="C45">
+        <v>646</v>
+      </c>
+      <c r="D45">
+        <v>9.5</v>
+      </c>
+      <c r="E45">
+        <v>11259</v>
+      </c>
+      <c r="F45">
+        <v>759.7</v>
+      </c>
+      <c r="G45">
+        <v>896166</v>
+      </c>
+      <c r="H45" s="12">
+        <v>43902</v>
+      </c>
+      <c r="I45" s="10">
+        <v>43923</v>
+      </c>
+      <c r="J45" s="13">
+        <v>43952</v>
+      </c>
+      <c r="K45" s="10">
+        <v>43922</v>
+      </c>
+      <c r="L45" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>275</v>
+      </c>
+      <c r="O45">
+        <v>160.63999999999999</v>
+      </c>
+      <c r="P45">
+        <v>6770010</v>
+      </c>
+      <c r="Q45">
+        <v>15.3</v>
+      </c>
+      <c r="R45">
+        <v>41.6</v>
+      </c>
+      <c r="S45">
+        <v>71078</v>
+      </c>
+      <c r="T45">
+        <v>0.24</v>
+      </c>
+      <c r="U45">
+        <v>0.09</v>
+      </c>
+      <c r="V45">
+        <v>0.12</v>
+      </c>
+      <c r="W45">
+        <v>0.26</v>
+      </c>
+      <c r="X45">
+        <v>0.13</v>
+      </c>
+      <c r="Y45">
+        <v>0.16</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="0"/>
+        <v>6769909.1746742129</v>
+      </c>
+      <c r="AA45" s="32">
+        <f t="shared" si="1"/>
+        <v>1.6630946899729737E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46">
+        <v>195239</v>
+      </c>
+      <c r="C46">
+        <v>2637</v>
+      </c>
+      <c r="D46">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E46">
+        <v>51868</v>
+      </c>
+      <c r="F46">
+        <v>680.2</v>
+      </c>
+      <c r="G46">
+        <v>2133457</v>
+      </c>
+      <c r="H46" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>43921</v>
+      </c>
+      <c r="L46" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M46" s="10">
+        <v>43959</v>
+      </c>
+      <c r="N46">
+        <v>521</v>
+      </c>
+      <c r="O46">
+        <v>106.86</v>
+      </c>
+      <c r="P46">
+        <v>28701845</v>
+      </c>
+      <c r="Q46">
+        <v>14.9</v>
+      </c>
+      <c r="R46">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="S46">
+        <v>202211</v>
+      </c>
+      <c r="T46">
+        <v>0.27</v>
+      </c>
+      <c r="U46">
+        <v>0.09</v>
+      </c>
+      <c r="V46">
+        <v>0.13</v>
+      </c>
+      <c r="W46">
+        <v>0.26</v>
+      </c>
+      <c r="X46">
+        <v>0.11</v>
+      </c>
+      <c r="Y46">
+        <v>0.13</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="0"/>
+        <v>28703175.536606882</v>
+      </c>
+      <c r="AA46" s="32">
+        <f t="shared" si="1"/>
+        <v>1.8070474444142818E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47">
+        <v>25500</v>
+      </c>
+      <c r="C47">
+        <v>185</v>
+      </c>
+      <c r="D47">
+        <v>5.9</v>
+      </c>
+      <c r="E47">
+        <v>4514</v>
+      </c>
+      <c r="F47">
+        <v>806.7</v>
+      </c>
+      <c r="G47">
+        <v>371308</v>
+      </c>
+      <c r="H47" s="12">
+        <v>43896</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M47" s="10">
+        <v>43931</v>
+      </c>
+      <c r="N47">
+        <v>580</v>
+      </c>
+      <c r="O47">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="P47">
+        <v>3161105</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>30</v>
+      </c>
+      <c r="S47">
+        <v>18354</v>
+      </c>
+      <c r="T47">
+        <v>0.31</v>
+      </c>
+      <c r="U47">
+        <v>0.11</v>
+      </c>
+      <c r="V47">
+        <v>0.13</v>
+      </c>
+      <c r="W47">
+        <v>0.24</v>
+      </c>
+      <c r="X47">
+        <v>0.1</v>
+      </c>
+      <c r="Y47">
+        <v>0.11</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="0"/>
+        <v>3161026.4038676084</v>
+      </c>
+      <c r="AA47" s="32">
+        <f t="shared" si="1"/>
+        <v>1.4280171764705883E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48">
+        <v>1251</v>
+      </c>
+      <c r="C48">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>8.9</v>
+      </c>
+      <c r="E48">
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <v>199.7</v>
+      </c>
+      <c r="G48">
+        <v>70024</v>
+      </c>
+      <c r="H48" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I48" s="10">
+        <v>43915</v>
+      </c>
+      <c r="J48" s="13">
+        <v>43966</v>
+      </c>
+      <c r="K48" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L48" s="13">
+        <v>43948</v>
+      </c>
+      <c r="M48" s="10">
+        <v>43938</v>
+      </c>
+      <c r="N48">
+        <v>513</v>
+      </c>
+      <c r="O48">
+        <v>65.13</v>
+      </c>
+      <c r="P48">
+        <v>626299</v>
+      </c>
+      <c r="Q48">
+        <v>11</v>
+      </c>
+      <c r="R48">
+        <v>39.1</v>
+      </c>
+      <c r="S48">
+        <v>6027</v>
+      </c>
+      <c r="T48">
+        <v>0.19</v>
+      </c>
+      <c r="U48">
+        <v>0.08</v>
+      </c>
+      <c r="V48">
+        <v>0.11</v>
+      </c>
+      <c r="W48">
+        <v>0.25</v>
+      </c>
+      <c r="X48">
+        <v>0.16</v>
+      </c>
+      <c r="Y48">
+        <v>0.2</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="0"/>
+        <v>626439.65948923386</v>
+      </c>
+      <c r="AA48" s="32">
+        <f t="shared" si="1"/>
+        <v>8.1412470023980809E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <v>66102</v>
+      </c>
+      <c r="C49">
+        <v>1853</v>
+      </c>
+      <c r="D49">
+        <v>21.8</v>
+      </c>
+      <c r="E49">
+        <v>4366</v>
+      </c>
+      <c r="F49">
+        <v>776.1</v>
+      </c>
+      <c r="G49">
+        <v>709355</v>
+      </c>
+      <c r="H49" s="12">
+        <v>43902</v>
+      </c>
+      <c r="I49" s="10">
+        <v>43920</v>
+      </c>
+      <c r="J49" s="13">
+        <v>43980</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="13">
+        <v>43980</v>
+      </c>
+      <c r="M49" s="10">
+        <v>43980</v>
+      </c>
+      <c r="N49">
+        <v>378</v>
+      </c>
+      <c r="O49">
+        <v>199.13</v>
+      </c>
+      <c r="P49">
+        <v>8517685</v>
+      </c>
+      <c r="Q49">
+        <v>10.7</v>
+      </c>
+      <c r="R49">
+        <v>35.9</v>
+      </c>
+      <c r="S49">
+        <v>69359</v>
+      </c>
+      <c r="T49">
+        <v>0.24</v>
+      </c>
+      <c r="U49">
+        <v>0.09</v>
+      </c>
+      <c r="V49">
+        <v>0.12</v>
+      </c>
+      <c r="W49">
+        <v>0.26</v>
+      </c>
+      <c r="X49">
+        <v>0.13</v>
+      </c>
+      <c r="Y49">
+        <v>0.16</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="0"/>
+        <v>8517201.3915732503</v>
+      </c>
+      <c r="AA49" s="32">
+        <f t="shared" si="1"/>
+        <v>5.1260969410910409E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50">
+        <v>35898</v>
+      </c>
+      <c r="C50">
+        <v>1359</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>4494</v>
+      </c>
+      <c r="F50">
+        <v>476.4</v>
+      </c>
+      <c r="G50">
+        <v>607276</v>
+      </c>
+      <c r="H50" s="12">
+        <v>43890</v>
+      </c>
+      <c r="I50" s="10">
+        <v>43913</v>
+      </c>
+      <c r="J50" s="13">
+        <v>43983</v>
+      </c>
+      <c r="K50" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L50" s="13">
+        <v>43956</v>
+      </c>
+      <c r="M50" s="10">
+        <v>43955</v>
+      </c>
+      <c r="N50">
+        <v>790</v>
+      </c>
+      <c r="O50">
+        <v>105.69</v>
+      </c>
+      <c r="P50">
+        <v>7535591</v>
+      </c>
+      <c r="Q50">
+        <v>10.3</v>
+      </c>
+      <c r="R50">
+        <v>35.1</v>
+      </c>
+      <c r="S50">
+        <v>56877</v>
+      </c>
+      <c r="T50">
+        <v>0.23</v>
+      </c>
+      <c r="U50">
+        <v>0.08</v>
+      </c>
+      <c r="V50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W50">
+        <v>0.26</v>
+      </c>
+      <c r="X50">
+        <v>0.13</v>
+      </c>
+      <c r="Y50">
+        <v>0.16</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="0"/>
+        <v>7535264.4836272048</v>
+      </c>
+      <c r="AA50" s="32">
+        <f t="shared" si="1"/>
+        <v>5.963957880661875E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51">
+        <v>3335</v>
+      </c>
+      <c r="C51">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>5.3</v>
+      </c>
+      <c r="E51">
+        <v>553</v>
+      </c>
+      <c r="F51">
+        <v>184.7</v>
+      </c>
+      <c r="G51">
+        <v>184821</v>
+      </c>
+      <c r="H51" s="12">
+        <v>43906</v>
+      </c>
+      <c r="I51" s="10">
+        <v>43914</v>
+      </c>
+      <c r="J51" s="13">
+        <v>43955</v>
+      </c>
+      <c r="K51" s="10">
+        <v>43914</v>
+      </c>
+      <c r="L51" s="13">
+        <v>43955</v>
+      </c>
+      <c r="M51" s="10">
+        <v>43955</v>
+      </c>
+      <c r="N51">
+        <v>424</v>
+      </c>
+      <c r="O51">
+        <v>74.53</v>
+      </c>
+      <c r="P51">
+        <v>1805832</v>
+      </c>
+      <c r="Q51">
+        <v>17.8</v>
+      </c>
+      <c r="R51">
+        <v>49.3</v>
+      </c>
+      <c r="S51">
+        <v>23478</v>
+      </c>
+      <c r="T51">
+        <v>0.21</v>
+      </c>
+      <c r="U51">
+        <v>0.08</v>
+      </c>
+      <c r="V51">
+        <v>0.11</v>
+      </c>
+      <c r="W51">
+        <v>0.25</v>
+      </c>
+      <c r="X51">
+        <v>0.15</v>
+      </c>
+      <c r="Y51">
+        <v>0.2</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="0"/>
+        <v>1805630.7525717379</v>
+      </c>
+      <c r="AA51" s="32">
+        <f t="shared" si="1"/>
+        <v>3.0626416791604201E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52">
+        <v>34740</v>
+      </c>
+      <c r="C52">
+        <v>803</v>
+      </c>
+      <c r="D52">
+        <v>13.8</v>
+      </c>
+      <c r="E52">
+        <v>4513</v>
+      </c>
+      <c r="F52">
+        <v>597.6</v>
+      </c>
+      <c r="G52">
+        <v>618851</v>
+      </c>
+      <c r="H52" s="12">
+        <v>43902</v>
+      </c>
+      <c r="I52" s="10">
+        <v>43915</v>
+      </c>
+      <c r="J52" s="13">
+        <v>43964</v>
+      </c>
+      <c r="K52" s="10">
+        <v>43915</v>
+      </c>
+      <c r="L52" s="13">
+        <v>43962</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>370</v>
+      </c>
+      <c r="O52">
+        <v>88.76</v>
+      </c>
+      <c r="P52">
+        <v>5813568</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>36.5</v>
+      </c>
+      <c r="S52">
+        <v>53684</v>
+      </c>
+      <c r="T52">
+        <v>0.23</v>
+      </c>
+      <c r="U52">
+        <v>0.09</v>
+      </c>
+      <c r="V52">
+        <v>0.11</v>
+      </c>
+      <c r="W52">
+        <v>0.26</v>
+      </c>
+      <c r="X52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0.17</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="0"/>
+        <v>5813253.0120481923</v>
+      </c>
+      <c r="AA52" s="32">
+        <f t="shared" si="1"/>
+        <v>7.7632953367875654E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <v>1634</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>3.5</v>
+      </c>
+      <c r="E53">
+        <v>242</v>
+      </c>
+      <c r="F53">
+        <v>282.8</v>
+      </c>
+      <c r="G53">
+        <v>35327</v>
+      </c>
+      <c r="H53" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>43952</v>
+      </c>
+      <c r="M53" s="10">
+        <v>43952</v>
+      </c>
+      <c r="N53">
+        <v>508</v>
+      </c>
+      <c r="O53">
+        <v>5.91</v>
+      </c>
+      <c r="P53">
+        <v>577737</v>
+      </c>
+      <c r="Q53">
+        <v>11.1</v>
+      </c>
+      <c r="R53">
+        <v>36.4</v>
+      </c>
+      <c r="S53">
+        <v>5070</v>
+      </c>
+      <c r="T53">
+        <v>0.24</v>
+      </c>
+      <c r="U53">
+        <v>0.08</v>
+      </c>
+      <c r="V53">
+        <v>0.12</v>
+      </c>
+      <c r="W53">
+        <v>0.24</v>
+      </c>
+      <c r="X53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0.17</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="0"/>
+        <v>577793.49363507773</v>
+      </c>
+      <c r="AA53" s="32">
+        <f t="shared" si="1"/>
+        <v>4.1883476132190947E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -1385,16 +7165,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="25">
         <v>44014</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1405,138 +7185,138 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="100.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1552,16 +7332,16 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="24">
         <v>2018</v>
       </c>
       <c r="E15" s="7"/>
@@ -1570,60 +7350,60 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1639,16 +7419,16 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="23">
         <v>44018</v>
       </c>
       <c r="E22" s="19"/>
@@ -1657,55 +7437,55 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="19"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="19"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="19"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="26"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="19"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="20" t="s">
         <v>87</v>
       </c>
@@ -1741,15 +7521,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A0C22F-99C9-4ECF-A142-1CF4E60FA6D9}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1760,6 +7540,7 @@
     <col min="11" max="11" width="14.75" customWidth="1"/>
     <col min="12" max="12" width="13.08203125" customWidth="1"/>
     <col min="13" max="13" width="14.4140625" customWidth="1"/>
+    <col min="27" max="27" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="9" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.45">
@@ -5838,12 +11619,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3088EE77-4111-4206-BB3A-D6CF0472F95B}">
   <dimension ref="C4:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5853,7 +11634,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5888,7 +11669,7 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5908,7 +11689,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="22" t="s">
         <v>95</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -5919,7 +11700,7 @@
       <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="21">
         <v>43913</v>
       </c>
     </row>
@@ -5927,7 +11708,7 @@
       <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="21">
         <v>43911</v>
       </c>
     </row>
@@ -5935,7 +11716,7 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="21">
         <v>43923</v>
       </c>
     </row>
